--- a/Assets/Resources/xml/monsters/Bestiary.xlsx
+++ b/Assets/Resources/xml/monsters/Bestiary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="38">
   <si>
     <t xml:space="preserve">Вогонь </t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>SchoolHoror</t>
+  </si>
+  <si>
+    <t>DarknessCaster</t>
   </si>
 </sst>
 </file>
@@ -503,7 +512,7 @@
   <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,12 +522,15 @@
     <col min="3" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -550,7 +562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -570,7 +582,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -605,7 +617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -625,7 +637,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -660,7 +672,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -680,7 +692,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -715,7 +727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -735,7 +747,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -770,7 +782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -790,7 +802,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -825,7 +837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -845,7 +857,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -880,7 +892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -900,7 +912,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -935,7 +947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -955,7 +967,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1009,8 +1021,11 @@
         <v>22</v>
       </c>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -1045,7 +1060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1064,8 +1079,11 @@
       <c r="L21" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1108,7 +1126,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1160,7 +1178,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -1195,7 +1213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1215,7 +1233,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>11</v>
       </c>
@@ -1250,7 +1268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -1270,7 +1288,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1305,7 +1323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
